--- a/soils/SSURGO_texture_for_analagous_soils.xlsx
+++ b/soils/SSURGO_texture_for_analagous_soils.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mydocuments\SDSU\research\tijuana_watershed\los_laureles_canyon\soil_texture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\mydocuments\SDSU\research\tijuana_watershed\writeups\EPA_modeling_report\EPA_modeling_report_data\soils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22170" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22170" windowHeight="8040" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="soil_layers_simple" sheetId="5" r:id="rId1"/>
     <sheet name="soil_layers_updated_2014 11 14" sheetId="1" r:id="rId2"/>
-    <sheet name="chesterton" sheetId="4" r:id="rId3"/>
-    <sheet name="huerohuero" sheetId="2" r:id="rId4"/>
-    <sheet name="olivenhain_cobbly" sheetId="3" r:id="rId5"/>
+    <sheet name="carlsbad_CbB" sheetId="6" r:id="rId3"/>
+    <sheet name="chesterton_CfB" sheetId="4" r:id="rId4"/>
+    <sheet name="huerhuero_HrC" sheetId="2" r:id="rId5"/>
+    <sheet name="olivenhain_OhC" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="225">
   <si>
     <t>Soil_ID</t>
   </si>
@@ -1334,6 +1335,66 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2647950"/>
+          <a:ext cx="9486900" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
@@ -1388,7 +1449,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1445,10 +1506,65 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9906000" y="1266825"/>
+          <a:ext cx="7610475" cy="5648325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1773,14 +1889,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" style="7" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="17" customWidth="1"/>
@@ -4403,535 +4520,817 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:FP6"/>
+  <dimension ref="A2:FP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" t="s">
+        <v>57</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>114</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>129</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>130</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>135</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>136</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>141</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>142</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>144</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>145</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>147</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>158</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>161</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>164</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>166</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>168</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>169</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>170</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>171</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>172</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>175</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>176</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>177</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>178</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>179</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>180</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>181</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>182</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>183</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>185</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>186</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>187</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>188</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>189</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>190</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>191</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>192</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>193</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>194</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>195</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>196</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>197</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>198</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>199</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>200</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>201</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>202</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>203</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>204</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>205</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>206</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:172" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>53</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>80</v>
+      </c>
+      <c r="W3">
+        <v>85</v>
+      </c>
+      <c r="X3">
+        <v>90</v>
+      </c>
+      <c r="Y3">
+        <v>60</v>
+      </c>
+      <c r="Z3">
+        <v>67.5</v>
+      </c>
+      <c r="AA3">
+        <v>75</v>
+      </c>
+      <c r="AB3">
+        <v>30</v>
+      </c>
+      <c r="AC3">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="AD3">
+        <v>50</v>
+      </c>
+      <c r="AE3">
+        <v>10</v>
+      </c>
+      <c r="AF3">
+        <v>15</v>
+      </c>
+      <c r="AG3">
+        <v>20</v>
+      </c>
+      <c r="AI3">
+        <v>83.5</v>
+      </c>
+      <c r="AL3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>12.1</v>
+      </c>
+      <c r="AR3">
+        <v>26.3</v>
+      </c>
+      <c r="AU3">
+        <v>31.8</v>
+      </c>
+      <c r="AX3">
+        <v>12.2</v>
+      </c>
+      <c r="BA3">
+        <v>9</v>
+      </c>
+      <c r="BI3">
+        <v>5</v>
+      </c>
+      <c r="BJ3">
+        <v>7.5</v>
+      </c>
+      <c r="BK3">
+        <v>10</v>
+      </c>
+      <c r="BO3">
+        <v>0.5</v>
+      </c>
+      <c r="BP3">
+        <v>1.25</v>
+      </c>
+      <c r="BQ3">
+        <v>2</v>
+      </c>
+      <c r="BU3">
+        <v>1.6</v>
+      </c>
+      <c r="BV3">
+        <v>1.65</v>
+      </c>
+      <c r="BW3">
+        <v>1.7</v>
+      </c>
+      <c r="CA3">
+        <v>1.7</v>
+      </c>
+      <c r="CB3">
+        <v>1.75</v>
+      </c>
+      <c r="CC3">
+        <v>1.84</v>
+      </c>
+      <c r="CE3">
+        <v>14</v>
+      </c>
+      <c r="CF3">
+        <v>28</v>
+      </c>
+      <c r="CG3">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>94</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>101</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>106</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>115</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>120</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>121</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>122</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>125</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>128</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>129</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>130</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>131</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>132</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>133</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>134</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>135</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>136</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>137</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>138</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>139</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>140</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>141</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>143</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>144</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>147</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>149</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>150</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>151</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>152</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>154</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>155</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>156</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>166</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>167</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>168</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>169</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>170</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>171</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>172</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>173</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>174</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>176</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>177</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>178</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>179</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>180</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>181</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>182</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>183</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>184</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>185</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>187</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>188</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>189</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>190</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>191</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>192</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>193</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>194</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>195</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>196</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>197</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>198</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>199</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>200</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>201</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>202</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>203</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>204</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>205</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>206</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>207</v>
+      <c r="CH3">
+        <v>0.05</v>
+      </c>
+      <c r="CI3">
+        <v>0.06</v>
+      </c>
+      <c r="CJ3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="CK3">
+        <v>13.7</v>
+      </c>
+      <c r="CL3">
+        <v>17.2</v>
+      </c>
+      <c r="CM3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="CN3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="CO3">
+        <v>13.3</v>
+      </c>
+      <c r="CP3">
+        <v>16.7</v>
+      </c>
+      <c r="CQ3">
+        <v>3.2</v>
+      </c>
+      <c r="CR3">
+        <v>5.8</v>
+      </c>
+      <c r="CS3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="CT3">
+        <v>23</v>
+      </c>
+      <c r="CU3">
+        <v>27</v>
+      </c>
+      <c r="CV3">
+        <v>30</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>1.5</v>
+      </c>
+      <c r="CY3">
+        <v>2.9</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0.05</v>
+      </c>
+      <c r="DJ3">
+        <v>0.1</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>0</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
+        <v>0</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1</v>
+      </c>
+      <c r="DX3">
+        <v>3</v>
+      </c>
+      <c r="DY3">
+        <v>5</v>
+      </c>
+      <c r="EF3">
+        <v>5.6</v>
+      </c>
+      <c r="EG3">
+        <v>6.1</v>
+      </c>
+      <c r="EH3">
+        <v>6.5</v>
+      </c>
+      <c r="FO3">
+        <v>13079970</v>
+      </c>
+      <c r="FP3">
+        <v>37484004</v>
       </c>
     </row>
     <row r="4" spans="1:172" x14ac:dyDescent="0.25">
@@ -4939,19 +5338,19 @@
         <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
         <v>210</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -4972,97 +5371,97 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="W4">
-        <v>95</v>
+        <v>97.5</v>
       </c>
       <c r="X4">
         <v>100</v>
       </c>
       <c r="Y4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z4">
-        <v>87.5</v>
+        <v>95</v>
       </c>
       <c r="AA4">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB4">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AC4">
-        <v>67.5</v>
+        <v>55</v>
       </c>
       <c r="AD4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE4">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AF4">
-        <v>42.5</v>
+        <v>20</v>
       </c>
       <c r="AG4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AI4">
-        <v>63.5</v>
+        <v>83.5</v>
       </c>
       <c r="AL4">
-        <v>0.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO4">
-        <v>5.8</v>
+        <v>12.1</v>
       </c>
       <c r="AR4">
-        <v>14.7</v>
+        <v>26.3</v>
       </c>
       <c r="AU4">
-        <v>25.9</v>
+        <v>31.8</v>
       </c>
       <c r="AX4">
-        <v>16.600000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="BA4">
-        <v>26.5</v>
+        <v>9</v>
       </c>
       <c r="BI4">
         <v>5</v>
       </c>
       <c r="BJ4">
+        <v>7.5</v>
+      </c>
+      <c r="BK4">
         <v>10</v>
       </c>
-      <c r="BK4">
-        <v>15</v>
-      </c>
       <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0.25</v>
+      </c>
+      <c r="BQ4">
         <v>0.5</v>
       </c>
-      <c r="BP4">
-        <v>0.75</v>
-      </c>
-      <c r="BQ4">
-        <v>1</v>
-      </c>
       <c r="BU4">
+        <v>1.6</v>
+      </c>
+      <c r="BV4">
+        <v>1.65</v>
+      </c>
+      <c r="BW4">
         <v>1.7</v>
       </c>
-      <c r="BV4">
+      <c r="CA4">
+        <v>1.68</v>
+      </c>
+      <c r="CB4">
         <v>1.73</v>
       </c>
-      <c r="BW4">
-        <v>1.75</v>
-      </c>
-      <c r="CA4">
-        <v>1.79</v>
-      </c>
-      <c r="CB4">
-        <v>1.82</v>
-      </c>
       <c r="CC4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="CE4">
         <v>14</v>
@@ -5074,40 +5473,49 @@
         <v>42</v>
       </c>
       <c r="CH4">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="CI4">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="CJ4">
-        <v>0.15</v>
+        <v>0.09</v>
+      </c>
+      <c r="CK4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="CL4">
+        <v>20.3</v>
+      </c>
+      <c r="CM4">
+        <v>22.9</v>
       </c>
       <c r="CN4">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="CO4">
-        <v>17.100000000000001</v>
+        <v>15</v>
       </c>
       <c r="CP4">
-        <v>21.6</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="CQ4">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="CR4">
-        <v>8.3000000000000007</v>
+        <v>5.8</v>
       </c>
       <c r="CS4">
-        <v>12.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="CT4">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="CU4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="CV4">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="CW4">
         <v>0</v>
@@ -5119,97 +5527,97 @@
         <v>2.9</v>
       </c>
       <c r="CZ4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="DC4">
         <v>0</v>
       </c>
       <c r="DD4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0.17</v>
+      </c>
+      <c r="DJ4">
+        <v>0.17</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>1</v>
+      </c>
+      <c r="DX4">
+        <v>3</v>
+      </c>
+      <c r="DY4">
         <v>5</v>
       </c>
-      <c r="DF4">
-        <v>0</v>
-      </c>
-      <c r="DG4">
-        <v>0</v>
-      </c>
-      <c r="DH4">
-        <v>0</v>
-      </c>
-      <c r="DI4">
-        <v>0.37</v>
-      </c>
-      <c r="DJ4">
-        <v>0.37</v>
-      </c>
-      <c r="DK4">
-        <v>0</v>
-      </c>
-      <c r="DL4">
-        <v>0</v>
-      </c>
-      <c r="DM4">
-        <v>0</v>
-      </c>
-      <c r="DN4">
-        <v>0</v>
-      </c>
-      <c r="DO4">
-        <v>0</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4">
-        <v>0</v>
-      </c>
-      <c r="DR4">
-        <v>0</v>
-      </c>
-      <c r="DS4">
-        <v>0</v>
-      </c>
-      <c r="DT4">
-        <v>0</v>
-      </c>
-      <c r="DU4">
-        <v>0</v>
-      </c>
-      <c r="DV4">
-        <v>0</v>
-      </c>
-      <c r="DW4">
-        <v>5</v>
-      </c>
-      <c r="DX4">
-        <v>7.5</v>
-      </c>
-      <c r="DY4">
-        <v>10</v>
-      </c>
       <c r="EF4">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="EG4">
         <v>5.8</v>
       </c>
       <c r="EH4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="FO4">
-        <v>13080006</v>
+        <v>13079970</v>
       </c>
       <c r="FP4">
-        <v>37484029</v>
+        <v>37484005</v>
       </c>
     </row>
     <row r="5" spans="1:172" x14ac:dyDescent="0.25">
@@ -5217,217 +5625,19 @@
         <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D5" t="s">
         <v>210</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="K5">
-        <v>86</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>90</v>
-      </c>
-      <c r="W5">
-        <v>95</v>
-      </c>
-      <c r="X5">
-        <v>100</v>
-      </c>
-      <c r="Y5">
-        <v>80</v>
-      </c>
-      <c r="Z5">
-        <v>87.5</v>
-      </c>
-      <c r="AA5">
-        <v>95</v>
-      </c>
-      <c r="AB5">
-        <v>75</v>
-      </c>
-      <c r="AC5">
-        <v>80</v>
-      </c>
-      <c r="AD5">
-        <v>85</v>
-      </c>
-      <c r="AE5">
-        <v>40</v>
-      </c>
-      <c r="AF5">
-        <v>50</v>
-      </c>
-      <c r="AG5">
-        <v>60</v>
-      </c>
-      <c r="AI5">
-        <v>51.8</v>
-      </c>
-      <c r="AL5">
-        <v>5.6</v>
-      </c>
-      <c r="AO5">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AR5">
-        <v>12.6</v>
-      </c>
-      <c r="AU5">
-        <v>16.3</v>
-      </c>
-      <c r="AX5">
-        <v>9</v>
-      </c>
-      <c r="BA5">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="BI5">
-        <v>35</v>
-      </c>
-      <c r="BJ5">
-        <v>40</v>
-      </c>
-      <c r="BK5">
-        <v>45</v>
-      </c>
-      <c r="BO5">
-        <v>0</v>
-      </c>
-      <c r="BP5">
-        <v>0.25</v>
-      </c>
-      <c r="BQ5">
-        <v>0.5</v>
-      </c>
-      <c r="BU5">
-        <v>1.65</v>
-      </c>
-      <c r="BV5">
-        <v>1.73</v>
-      </c>
-      <c r="BW5">
-        <v>1.8</v>
-      </c>
-      <c r="CA5">
-        <v>1.74</v>
-      </c>
-      <c r="CB5">
-        <v>1.82</v>
-      </c>
-      <c r="CC5">
-        <v>1.9</v>
-      </c>
-      <c r="CE5">
-        <v>0.01</v>
-      </c>
-      <c r="CF5">
-        <v>0.215</v>
-      </c>
-      <c r="CG5">
-        <v>0.42</v>
-      </c>
-      <c r="CH5">
-        <v>0.06</v>
-      </c>
-      <c r="CI5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="CJ5">
-        <v>0.08</v>
-      </c>
-      <c r="CN5">
-        <v>24.4</v>
-      </c>
-      <c r="CO5">
-        <v>27.6</v>
-      </c>
-      <c r="CP5">
-        <v>30.8</v>
-      </c>
-      <c r="CQ5">
-        <v>15.6</v>
-      </c>
-      <c r="CR5">
-        <v>19.3</v>
-      </c>
-      <c r="CS5">
-        <v>23.3</v>
-      </c>
-      <c r="CT5">
-        <v>26</v>
-      </c>
-      <c r="CU5">
-        <v>30</v>
-      </c>
-      <c r="CV5">
-        <v>34</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>1.5</v>
-      </c>
-      <c r="CY5">
-        <v>2.9</v>
-      </c>
-      <c r="CZ5">
-        <v>30</v>
-      </c>
-      <c r="DA5">
-        <v>37.5</v>
-      </c>
-      <c r="DB5">
-        <v>45</v>
-      </c>
-      <c r="DC5">
-        <v>15</v>
-      </c>
-      <c r="DD5">
-        <v>20</v>
-      </c>
-      <c r="DE5">
-        <v>25</v>
-      </c>
-      <c r="DF5">
-        <v>2</v>
-      </c>
-      <c r="DG5">
-        <v>6</v>
-      </c>
-      <c r="DH5">
-        <v>12</v>
-      </c>
-      <c r="DI5">
-        <v>0.2</v>
-      </c>
-      <c r="DJ5">
-        <v>0.2</v>
+        <v>127</v>
       </c>
       <c r="DK5">
         <v>0</v>
@@ -5465,100 +5675,11 @@
       <c r="DV5">
         <v>0</v>
       </c>
-      <c r="DW5">
-        <v>35</v>
-      </c>
-      <c r="DX5">
-        <v>40</v>
-      </c>
-      <c r="DY5">
-        <v>45</v>
-      </c>
-      <c r="EF5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="EG5">
-        <v>5.6</v>
-      </c>
-      <c r="EH5">
-        <v>6</v>
-      </c>
       <c r="FO5">
-        <v>13080006</v>
+        <v>13079970</v>
       </c>
       <c r="FP5">
-        <v>37484030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:172" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>86</v>
-      </c>
-      <c r="K6">
-        <v>152</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="DK6">
-        <v>0</v>
-      </c>
-      <c r="DL6">
-        <v>0</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DN6">
-        <v>0</v>
-      </c>
-      <c r="DO6">
-        <v>0</v>
-      </c>
-      <c r="DP6">
-        <v>0</v>
-      </c>
-      <c r="DQ6">
-        <v>0</v>
-      </c>
-      <c r="DR6">
-        <v>0</v>
-      </c>
-      <c r="DS6">
-        <v>0</v>
-      </c>
-      <c r="DT6">
-        <v>0</v>
-      </c>
-      <c r="DU6">
-        <v>0</v>
-      </c>
-      <c r="DV6">
-        <v>0</v>
-      </c>
-      <c r="FO6">
-        <v>13080006</v>
-      </c>
-      <c r="FP6">
-        <v>37484031</v>
+        <v>37484006</v>
       </c>
     </row>
   </sheetData>
@@ -5569,10 +5690,1176 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:FP6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>114</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>117</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>118</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>119</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>121</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>124</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>125</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>128</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>129</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>130</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>131</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>132</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>134</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>135</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>137</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>138</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>140</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>141</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>145</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>149</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>152</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>154</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>155</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>158</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>161</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>164</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>165</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>166</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>167</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>168</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>169</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>170</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>171</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>172</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>173</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>175</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>176</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>178</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>179</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>180</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>181</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>182</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>183</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>184</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>185</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>186</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>187</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>188</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>189</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>190</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>191</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>192</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>193</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>194</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>195</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>196</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>197</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>198</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>199</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>200</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>201</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>202</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>203</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>204</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>205</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>206</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>48</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>90</v>
+      </c>
+      <c r="W4">
+        <v>95</v>
+      </c>
+      <c r="X4">
+        <v>100</v>
+      </c>
+      <c r="Y4">
+        <v>80</v>
+      </c>
+      <c r="Z4">
+        <v>87.5</v>
+      </c>
+      <c r="AA4">
+        <v>95</v>
+      </c>
+      <c r="AB4">
+        <v>60</v>
+      </c>
+      <c r="AC4">
+        <v>67.5</v>
+      </c>
+      <c r="AD4">
+        <v>75</v>
+      </c>
+      <c r="AE4">
+        <v>35</v>
+      </c>
+      <c r="AF4">
+        <v>42.5</v>
+      </c>
+      <c r="AG4">
+        <v>50</v>
+      </c>
+      <c r="AI4">
+        <v>63.5</v>
+      </c>
+      <c r="AL4">
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <v>5.8</v>
+      </c>
+      <c r="AR4">
+        <v>14.7</v>
+      </c>
+      <c r="AU4">
+        <v>25.9</v>
+      </c>
+      <c r="AX4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="BA4">
+        <v>26.5</v>
+      </c>
+      <c r="BI4">
+        <v>5</v>
+      </c>
+      <c r="BJ4">
+        <v>10</v>
+      </c>
+      <c r="BK4">
+        <v>15</v>
+      </c>
+      <c r="BO4">
+        <v>0.5</v>
+      </c>
+      <c r="BP4">
+        <v>0.75</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1.7</v>
+      </c>
+      <c r="BV4">
+        <v>1.73</v>
+      </c>
+      <c r="BW4">
+        <v>1.75</v>
+      </c>
+      <c r="CA4">
+        <v>1.79</v>
+      </c>
+      <c r="CB4">
+        <v>1.82</v>
+      </c>
+      <c r="CC4">
+        <v>1.9</v>
+      </c>
+      <c r="CE4">
+        <v>14</v>
+      </c>
+      <c r="CF4">
+        <v>28</v>
+      </c>
+      <c r="CG4">
+        <v>42</v>
+      </c>
+      <c r="CH4">
+        <v>0.12</v>
+      </c>
+      <c r="CI4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="CJ4">
+        <v>0.15</v>
+      </c>
+      <c r="CN4">
+        <v>12</v>
+      </c>
+      <c r="CO4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="CP4">
+        <v>21.6</v>
+      </c>
+      <c r="CQ4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="CR4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="CS4">
+        <v>12.8</v>
+      </c>
+      <c r="CT4">
+        <v>27</v>
+      </c>
+      <c r="CU4">
+        <v>30</v>
+      </c>
+      <c r="CV4">
+        <v>32</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>1.5</v>
+      </c>
+      <c r="CY4">
+        <v>2.9</v>
+      </c>
+      <c r="CZ4">
+        <v>20</v>
+      </c>
+      <c r="DA4">
+        <v>25</v>
+      </c>
+      <c r="DB4">
+        <v>30</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>2.5</v>
+      </c>
+      <c r="DE4">
+        <v>5</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0.37</v>
+      </c>
+      <c r="DJ4">
+        <v>0.37</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>5</v>
+      </c>
+      <c r="DX4">
+        <v>7.5</v>
+      </c>
+      <c r="DY4">
+        <v>10</v>
+      </c>
+      <c r="EF4">
+        <v>5.6</v>
+      </c>
+      <c r="EG4">
+        <v>5.8</v>
+      </c>
+      <c r="EH4">
+        <v>6</v>
+      </c>
+      <c r="FO4">
+        <v>13080006</v>
+      </c>
+      <c r="FP4">
+        <v>37484029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>86</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>90</v>
+      </c>
+      <c r="W5">
+        <v>95</v>
+      </c>
+      <c r="X5">
+        <v>100</v>
+      </c>
+      <c r="Y5">
+        <v>80</v>
+      </c>
+      <c r="Z5">
+        <v>87.5</v>
+      </c>
+      <c r="AA5">
+        <v>95</v>
+      </c>
+      <c r="AB5">
+        <v>75</v>
+      </c>
+      <c r="AC5">
+        <v>80</v>
+      </c>
+      <c r="AD5">
+        <v>85</v>
+      </c>
+      <c r="AE5">
+        <v>40</v>
+      </c>
+      <c r="AF5">
+        <v>50</v>
+      </c>
+      <c r="AG5">
+        <v>60</v>
+      </c>
+      <c r="AI5">
+        <v>51.8</v>
+      </c>
+      <c r="AL5">
+        <v>5.6</v>
+      </c>
+      <c r="AO5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AR5">
+        <v>12.6</v>
+      </c>
+      <c r="AU5">
+        <v>16.3</v>
+      </c>
+      <c r="AX5">
+        <v>9</v>
+      </c>
+      <c r="BA5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="BI5">
+        <v>35</v>
+      </c>
+      <c r="BJ5">
+        <v>40</v>
+      </c>
+      <c r="BK5">
+        <v>45</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0.25</v>
+      </c>
+      <c r="BQ5">
+        <v>0.5</v>
+      </c>
+      <c r="BU5">
+        <v>1.65</v>
+      </c>
+      <c r="BV5">
+        <v>1.73</v>
+      </c>
+      <c r="BW5">
+        <v>1.8</v>
+      </c>
+      <c r="CA5">
+        <v>1.74</v>
+      </c>
+      <c r="CB5">
+        <v>1.82</v>
+      </c>
+      <c r="CC5">
+        <v>1.9</v>
+      </c>
+      <c r="CE5">
+        <v>0.01</v>
+      </c>
+      <c r="CF5">
+        <v>0.215</v>
+      </c>
+      <c r="CG5">
+        <v>0.42</v>
+      </c>
+      <c r="CH5">
+        <v>0.06</v>
+      </c>
+      <c r="CI5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="CJ5">
+        <v>0.08</v>
+      </c>
+      <c r="CN5">
+        <v>24.4</v>
+      </c>
+      <c r="CO5">
+        <v>27.6</v>
+      </c>
+      <c r="CP5">
+        <v>30.8</v>
+      </c>
+      <c r="CQ5">
+        <v>15.6</v>
+      </c>
+      <c r="CR5">
+        <v>19.3</v>
+      </c>
+      <c r="CS5">
+        <v>23.3</v>
+      </c>
+      <c r="CT5">
+        <v>26</v>
+      </c>
+      <c r="CU5">
+        <v>30</v>
+      </c>
+      <c r="CV5">
+        <v>34</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>1.5</v>
+      </c>
+      <c r="CY5">
+        <v>2.9</v>
+      </c>
+      <c r="CZ5">
+        <v>30</v>
+      </c>
+      <c r="DA5">
+        <v>37.5</v>
+      </c>
+      <c r="DB5">
+        <v>45</v>
+      </c>
+      <c r="DC5">
+        <v>15</v>
+      </c>
+      <c r="DD5">
+        <v>20</v>
+      </c>
+      <c r="DE5">
+        <v>25</v>
+      </c>
+      <c r="DF5">
+        <v>2</v>
+      </c>
+      <c r="DG5">
+        <v>6</v>
+      </c>
+      <c r="DH5">
+        <v>12</v>
+      </c>
+      <c r="DI5">
+        <v>0.2</v>
+      </c>
+      <c r="DJ5">
+        <v>0.2</v>
+      </c>
+      <c r="DK5">
+        <v>0</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>0</v>
+      </c>
+      <c r="DR5">
+        <v>0</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5">
+        <v>0</v>
+      </c>
+      <c r="DU5">
+        <v>0</v>
+      </c>
+      <c r="DV5">
+        <v>0</v>
+      </c>
+      <c r="DW5">
+        <v>35</v>
+      </c>
+      <c r="DX5">
+        <v>40</v>
+      </c>
+      <c r="DY5">
+        <v>45</v>
+      </c>
+      <c r="EF5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="EG5">
+        <v>5.6</v>
+      </c>
+      <c r="EH5">
+        <v>6</v>
+      </c>
+      <c r="FO5">
+        <v>13080006</v>
+      </c>
+      <c r="FP5">
+        <v>37484030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:172" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>86</v>
+      </c>
+      <c r="K6">
+        <v>152</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>0</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>0</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
+      </c>
+      <c r="DV6">
+        <v>0</v>
+      </c>
+      <c r="FO6">
+        <v>13080006</v>
+      </c>
+      <c r="FP6">
+        <v>37484031</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6972,12 +8259,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:FP7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/soils/SSURGO_texture_for_analagous_soils.xlsx
+++ b/soils/SSURGO_texture_for_analagous_soils.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22170" windowHeight="8040" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22170" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="soil_layers_simple" sheetId="5" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="carlsbad_CbB" sheetId="6" r:id="rId3"/>
     <sheet name="chesterton_CfB" sheetId="4" r:id="rId4"/>
     <sheet name="huerhuero_HrC" sheetId="2" r:id="rId5"/>
-    <sheet name="olivenhain_OhC" sheetId="3" r:id="rId6"/>
+    <sheet name="README" sheetId="7" r:id="rId6"/>
+    <sheet name="olivenhain_OhC" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="228">
   <si>
     <t>Soil_ID</t>
   </si>
@@ -699,6 +700,15 @@
   </si>
   <si>
     <t>CfB .SURF, HR.SURF</t>
+  </si>
+  <si>
+    <t>All data, kmz, interactive maps available at:</t>
+  </si>
+  <si>
+    <t>https://casoilresource.lawr.ucdavis.edu/</t>
+  </si>
+  <si>
+    <t>https://casoilresource.lawr.ucdavis.edu/soilweb-apps/</t>
   </si>
 </sst>
 </file>
@@ -1889,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,7 +6869,7 @@
   <dimension ref="A1:FP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8261,9 +8271,39 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:FP7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
